--- a/users.xlsx
+++ b/users.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="n">
         <v>123456</v>
@@ -579,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -708,6 +708,21 @@
         <v>100</v>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>Devik Verma</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Devik Verma</t>
         </is>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,20 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -52,17 +44,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -457,17 +446,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="12.21875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="18.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -487,7 +472,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>E-mail</t>
+          <t>Mail</t>
         </is>
       </c>
     </row>
@@ -501,74 +486,15 @@
         <v>2000</v>
       </c>
       <c r="C2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>devik123@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sonali Khanna</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>sk1234@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Lolli Masti</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>vdevik10@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mona Sikka</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>devikverma64@gmail.com</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -579,10 +505,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -611,118 +537,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sonali Khanna</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sonali Khanna</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>250</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lolli Masti</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>Devik Verma</t>
         </is>
@@ -739,10 +560,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -767,66 +588,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>800</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Devik Verma</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lolli Masti</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
